--- a/ChilwaBasin_ClimateDailyAnalysis_032024/Data/ChilwaBasin_MonthlyAverageMinimumTemperature_19812018.xlsx
+++ b/ChilwaBasin_ClimateDailyAnalysis_032024/Data/ChilwaBasin_MonthlyAverageMinimumTemperature_19812018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasin_ClimateDailyAnalysis_032024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6090D9-803A-4C59-A26A-2E56FCA4A79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13E40C-1CB0-4A6D-88D5-AAE405FE57BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="568" xr2:uid="{15A0805B-0CDD-4AAD-92D9-B18D3E5D9653}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
